--- a/biology/Botanique/Rosa_hemisphaerica/Rosa_hemisphaerica.xlsx
+++ b/biology/Botanique/Rosa_hemisphaerica/Rosa_hemisphaerica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa hemisphaerica  ou rosier des Turcs, le Sulphur Rose anglais ou le Schwefel Rose allemand, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Pimpinellifoliæ. Il a été introduit en Europe en 1600 par Clusius et il provenait d'un jardin en Turquie.
-On en connait deux variétés[1] :
+On en connait deux variétés :
 Rosa hemisphaerica var. harisoni hort. ex Rehder,
 Rosa hemisphaerica var. plena hort. ex Rehder.
 </t>
@@ -514,7 +526,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rosa raphinii Boiss. &amp; Balansa
 Rosa sulphurea Dryand.</t>
@@ -545,12 +559,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rosier botanique, Rosa hemisphaerica, var. rapinii n'a été découvert et nommé qu'au début du XXe siècle.
 Il a des fleurs simples et ne réussit pas en culture
 Rosa hemisphaerica est un buisson haut de 1 à 4 mètres, aux tiges molles (ce qui nécessite de les palisser) qui portent des aiguillons en forme de crochets. Le feuillage, de couleur tirant sur le gris bleuté,  est constitué de feuilles à 5 à 9  folioles dentelés ovales.
-Les fleurs sont isolées, en forme de demi-sphère d'où le nom spécifique, très doubles, d'un remarquable jaune soufre et assez grandes (5 à 6 cm)[2].
+Les fleurs sont isolées, en forme de demi-sphère d'où le nom spécifique, très doubles, d'un remarquable jaune soufre et assez grandes (5 à 6 cm).
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rosier est cultivé en Perse depuis l'Antiquité.
 </t>
